--- a/docs/stakeholders.xlsx
+++ b/docs/stakeholders.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SHAIR\home\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SHAIR\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C23164-120A-4161-9715-AE980C111575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2540D374-92E4-479F-9681-1D737A5FFC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A523EF36-3E43-43E4-BDB4-F97E48162AA6}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>SHAIR</t>
   </si>
   <si>
-    <t>StakeHolders</t>
-  </si>
-  <si>
     <t>Internos</t>
   </si>
   <si>
@@ -71,35 +68,113 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>Encargado de gestionar los administradores</t>
-  </si>
-  <si>
-    <t>Encargado de gestionar las noticias, anuncios y recomendaciones</t>
-  </si>
-  <si>
-    <t>EI-00</t>
-  </si>
-  <si>
-    <t>Ei-01</t>
-  </si>
-  <si>
-    <t>Aprendiz</t>
-  </si>
-  <si>
     <t>Visitante</t>
   </si>
   <si>
-    <t>Encargado de generar las recomendaciones</t>
-  </si>
-  <si>
-    <t>usuario que solo visualiza la página</t>
+    <t>SE-00</t>
+  </si>
+  <si>
+    <t>SE-01</t>
+  </si>
+  <si>
+    <t>SI-02</t>
+  </si>
+  <si>
+    <t>SI-03</t>
+  </si>
+  <si>
+    <t>SI-04</t>
+  </si>
+  <si>
+    <t>SI-05</t>
+  </si>
+  <si>
+    <t>SI-06</t>
+  </si>
+  <si>
+    <t>SE-02</t>
+  </si>
+  <si>
+    <t>SE-03</t>
+  </si>
+  <si>
+    <t>SE-04</t>
+  </si>
+  <si>
+    <t>Scrum master</t>
+  </si>
+  <si>
+    <t>Product owner</t>
+  </si>
+  <si>
+    <t>Developer team</t>
+  </si>
+  <si>
+    <t>Usuario que hace uso de la página y envía recomendaciones</t>
+  </si>
+  <si>
+    <t>Data analyst</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Encargado de comunicarse con el cliente, crear las tareas y backlog, organizar los sprints y evaluar el trabajo hecho por el developer team</t>
+  </si>
+  <si>
+    <t>Encargado de gestionar y asegurar el uso de SCRUM, asegurando su óptimo desempeño y organizando las reuniones</t>
+  </si>
+  <si>
+    <t>Encargados de realizar las tareas del sprint, gestionar su tiempo y garantizar tareas finalizadas para la fecha de entrega del esprint</t>
+  </si>
+  <si>
+    <t>Encargado de realizar las investigaciones y todo lo relacionado con la documentación del proyecto</t>
+  </si>
+  <si>
+    <t>Encargado de diseñar el UX/UI del proyecto</t>
+  </si>
+  <si>
+    <t>StakeHolders/Software</t>
+  </si>
+  <si>
+    <t>StakeHolders/Proyecto</t>
+  </si>
+  <si>
+    <t>Encargado de gestionar los administradores y su contenido</t>
+  </si>
+  <si>
+    <t>Encargados de gestionar las noticias, anuncios y recomendaciones</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Visitante que  envía recomendaciones</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Empresa o persona que solicita el software</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>Empresa proporcionada por el cliente o por SHAIR que permite la subida de la página a internet</t>
+  </si>
+  <si>
+    <t>Proovedor</t>
+  </si>
+  <si>
+    <t>Empresa o conjunto de empresas que expenden las licencias de las herramientas y tecnologías requeridas para el desarrollo del software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,23 +183,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -137,18 +224,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -175,19 +262,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -238,40 +312,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,130 +678,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892F8D0E-19E7-4568-9AB3-152540E5EA71}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>